--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$44</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="271">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-12T23:44:27+01:00</t>
+    <t>2023-12-13T00:38:53+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profile used for Scheduler in HN. Based on FHIR Schedule (R4)</t>
+    <t>FHIR Schedule brukes for å hente timebøker tilgjengelige for timebestilling for innbygger. Profilen er basert på R4.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -335,6 +338,22 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>Schedule.extension:firstFreeSlot</t>
+  </si>
+  <si>
+    <t>firstFreeSlot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/hn-extension-first-available-free-slot}
+</t>
+  </si>
+  <si>
+    <t>Første ledige slot i timebok</t>
+  </si>
+  <si>
+    <t>Første ledige slot i timebok. Tid og referanse</t>
+  </si>
+  <si>
     <t>Schedule.modifierExtension</t>
   </si>
   <si>
@@ -665,10 +684,7 @@
     <t>The specific service that is to be performed during this appointment.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+    <t>http://helsenorge.no/fhir/ValueSet/hn-scheduleandslot-type-vs</t>
   </si>
   <si>
     <t>Schedule.serviceType.id</t>
@@ -977,6 +993,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1143,7 +1174,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM43"/>
+  <dimension ref="A1:AM44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1154,13 +1185,14 @@
   <cols>
     <col min="1" max="1" width="33.23046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.23046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.05859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.07421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1175,7 +1207,7 @@
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.3984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -1184,7 +1216,6 @@
     <col min="32" max="32" width="33.1484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="137.703125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
@@ -1300,7 +1331,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>44</v>
       </c>
@@ -1411,7 +1442,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>52</v>
       </c>
@@ -1520,7 +1551,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>60</v>
       </c>
@@ -1631,7 +1662,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>66</v>
       </c>
@@ -1742,7 +1773,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>75</v>
       </c>
@@ -1853,7 +1884,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>83</v>
       </c>
@@ -1964,7 +1995,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>90</v>
       </c>
@@ -2075,48 +2106,46 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="D9" t="s" s="2">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>37</v>
       </c>
@@ -2152,19 +2181,19 @@
         <v>37</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>35</v>
@@ -2179,7 +2208,7 @@
         <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>37</v>
@@ -2188,7 +2217,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>106</v>
       </c>
@@ -2197,35 +2226,39 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="M10" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="N10" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="P10" t="s" s="2">
         <v>37</v>
       </c>
@@ -2261,19 +2294,19 @@
         <v>37</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>35</v>
@@ -2285,24 +2318,24 @@
         <v>57</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="AM10" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" hidden="true">
+      <c r="A11" t="s" s="2">
         <v>111</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="B11" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2310,7 +2343,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>45</v>
@@ -2322,16 +2355,16 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L11" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="M11" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2382,31 +2415,31 @@
         <v>37</v>
       </c>
       <c r="AF11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AG11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>117</v>
       </c>
@@ -2415,14 +2448,14 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>37</v>
@@ -2434,17 +2467,15 @@
         <v>37</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>37</v>
@@ -2481,34 +2512,34 @@
         <v>37</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>37</v>
@@ -2517,48 +2548,46 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>37</v>
       </c>
@@ -2582,46 +2611,46 @@
         <v>37</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>57</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>37</v>
@@ -2630,12 +2659,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2652,25 +2681,25 @@
         <v>37</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>46</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>37</v>
@@ -2695,13 +2724,13 @@
         <v>37</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>37</v>
@@ -2719,7 +2748,7 @@
         <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>35</v>
@@ -2734,7 +2763,7 @@
         <v>58</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>37</v>
@@ -2743,12 +2772,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2756,7 +2785,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>45</v>
@@ -2771,19 +2800,19 @@
         <v>46</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>37</v>
@@ -2796,7 +2825,7 @@
         <v>37</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="U15" t="s" s="2">
         <v>37</v>
@@ -2808,13 +2837,13 @@
         <v>37</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>37</v>
@@ -2832,7 +2861,7 @@
         <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>35</v>
@@ -2847,7 +2876,7 @@
         <v>58</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>37</v>
@@ -2856,12 +2885,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2884,18 +2913,20 @@
         <v>46</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O16" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>37</v>
       </c>
@@ -2907,7 +2938,7 @@
         <v>37</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>37</v>
@@ -2943,7 +2974,7 @@
         <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>35</v>
@@ -2958,7 +2989,7 @@
         <v>58</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>37</v>
@@ -2967,12 +2998,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2980,7 +3011,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>45</v>
@@ -2995,16 +3026,16 @@
         <v>46</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3018,7 +3049,7 @@
         <v>37</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>37</v>
@@ -3054,7 +3085,7 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>35</v>
@@ -3066,10 +3097,10 @@
         <v>57</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>37</v>
@@ -3078,12 +3109,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3106,16 +3137,16 @@
         <v>46</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3165,7 +3196,7 @@
         <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>35</v>
@@ -3177,10 +3208,10 @@
         <v>57</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>37</v>
@@ -3189,12 +3220,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3211,35 +3242,33 @@
         <v>37</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>46</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="Q19" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>37</v>
@@ -3278,7 +3307,7 @@
         <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>35</v>
@@ -3290,24 +3319,24 @@
         <v>57</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3318,39 +3347,41 @@
         <v>35</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>46</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="Q20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="R20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>37</v>
@@ -3365,11 +3396,13 @@
         <v>37</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="Y20" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="Z20" t="s" s="2">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>37</v>
@@ -3387,13 +3420,13 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>57</v>
@@ -3402,21 +3435,21 @@
         <v>58</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AL20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="B21" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3427,7 +3460,7 @@
         <v>35</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>37</v>
@@ -3436,18 +3469,20 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>37</v>
@@ -3472,13 +3507,11 @@
         <v>37</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>37</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>37</v>
+        <v>188</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>37</v>
@@ -3496,47 +3529,47 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>37</v>
@@ -3548,17 +3581,15 @@
         <v>37</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>37</v>
@@ -3595,34 +3626,34 @@
         <v>37</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>37</v>
@@ -3631,16 +3662,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3656,23 +3687,21 @@
         <v>37</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>37</v>
       </c>
@@ -3708,19 +3737,19 @@
         <v>37</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>35</v>
@@ -3732,10 +3761,10 @@
         <v>57</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>196</v>
+        <v>59</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>37</v>
@@ -3744,12 +3773,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3760,7 +3789,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>37</v>
@@ -3772,19 +3801,19 @@
         <v>46</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O24" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>37</v>
@@ -3833,22 +3862,22 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>57</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>37</v>
@@ -3857,12 +3886,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3873,7 +3902,7 @@
         <v>35</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>37</v>
@@ -3885,18 +3914,20 @@
         <v>46</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="N25" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>37</v>
       </c>
@@ -3920,35 +3951,37 @@
         <v>37</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Y25" s="2"/>
-      <c r="Z25" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="AG25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>57</v>
@@ -3957,16 +3990,16 @@
         <v>58</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>209</v>
       </c>
@@ -3982,7 +4015,7 @@
         <v>35</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>37</v>
@@ -3991,18 +4024,20 @@
         <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>37</v>
@@ -4027,13 +4062,11 @@
         <v>37</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>37</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>37</v>
+        <v>212</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>37</v>
@@ -4051,47 +4084,47 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AL26" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="AM26" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>37</v>
@@ -4103,17 +4136,15 @@
         <v>37</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>37</v>
@@ -4150,34 +4181,34 @@
         <v>37</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>37</v>
@@ -4186,16 +4217,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4211,23 +4242,21 @@
         <v>37</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>37</v>
       </c>
@@ -4263,19 +4292,19 @@
         <v>37</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>35</v>
@@ -4287,10 +4316,10 @@
         <v>57</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>196</v>
+        <v>59</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>37</v>
@@ -4299,12 +4328,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4315,7 +4344,7 @@
         <v>35</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>37</v>
@@ -4327,19 +4356,19 @@
         <v>46</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O29" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>37</v>
@@ -4388,22 +4417,22 @@
         <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>57</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>37</v>
@@ -4412,12 +4441,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4428,7 +4457,7 @@
         <v>35</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>37</v>
@@ -4440,18 +4469,20 @@
         <v>46</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>37</v>
       </c>
@@ -4475,13 +4506,13 @@
         <v>37</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>216</v>
+        <v>37</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>37</v>
@@ -4499,13 +4530,13 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>57</v>
@@ -4514,21 +4545,21 @@
         <v>58</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4539,7 +4570,7 @@
         <v>35</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>37</v>
@@ -4548,18 +4579,20 @@
         <v>37</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>114</v>
+        <v>218</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>37</v>
@@ -4584,13 +4617,13 @@
         <v>37</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>37</v>
+        <v>220</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>37</v>
@@ -4608,47 +4641,47 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>116</v>
+        <v>217</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>37</v>
@@ -4660,17 +4693,15 @@
         <v>37</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>37</v>
@@ -4707,34 +4738,34 @@
         <v>37</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>37</v>
@@ -4743,16 +4774,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -4768,23 +4799,21 @@
         <v>37</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>37</v>
       </c>
@@ -4820,19 +4849,19 @@
         <v>37</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>35</v>
@@ -4844,10 +4873,10 @@
         <v>57</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>196</v>
+        <v>59</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>37</v>
@@ -4856,12 +4885,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4872,7 +4901,7 @@
         <v>35</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>37</v>
@@ -4884,19 +4913,19 @@
         <v>46</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O34" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>37</v>
@@ -4945,22 +4974,22 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>57</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>37</v>
@@ -4969,12 +4998,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4982,10 +5011,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G35" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>36</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>37</v>
@@ -4997,18 +5026,20 @@
         <v>46</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>223</v>
+        <v>118</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>37</v>
       </c>
@@ -5056,36 +5087,36 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="AG35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH35" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>36</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>57</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>228</v>
+        <v>37</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5093,10 +5124,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>37</v>
@@ -5105,18 +5136,20 @@
         <v>37</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>113</v>
+        <v>227</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>114</v>
+        <v>228</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>37</v>
@@ -5165,47 +5198,47 @@
         <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>116</v>
+        <v>226</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>37</v>
@@ -5217,17 +5250,15 @@
         <v>37</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>37</v>
@@ -5264,34 +5295,34 @@
         <v>37</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>37</v>
@@ -5300,23 +5331,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>37</v>
@@ -5325,19 +5356,19 @@
         <v>37</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>233</v>
+        <v>93</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>234</v>
+        <v>123</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>235</v>
+        <v>95</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5375,31 +5406,31 @@
         <v>37</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>236</v>
+        <v>124</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>237</v>
+        <v>57</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>59</v>
@@ -5411,12 +5442,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5424,7 +5455,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -5439,16 +5470,16 @@
         <v>46</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5474,13 +5505,13 @@
         <v>37</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>242</v>
+        <v>37</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>243</v>
+        <v>37</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>37</v>
@@ -5498,7 +5529,7 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>35</v>
@@ -5507,7 +5538,7 @@
         <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>57</v>
+        <v>241</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>58</v>
@@ -5522,12 +5553,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5535,7 +5566,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>45</v>
@@ -5550,16 +5581,16 @@
         <v>46</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5585,13 +5616,13 @@
         <v>37</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>37</v>
+        <v>246</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>37</v>
+        <v>247</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>37</v>
@@ -5609,7 +5640,7 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>35</v>
@@ -5624,7 +5655,7 @@
         <v>58</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>250</v>
+        <v>59</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>37</v>
@@ -5633,12 +5664,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5661,16 +5692,16 @@
         <v>46</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -5720,7 +5751,7 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>35</v>
@@ -5735,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>59</v>
+        <v>254</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>37</v>
@@ -5744,12 +5775,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5772,16 +5803,16 @@
         <v>46</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5831,7 +5862,7 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>35</v>
@@ -5843,24 +5874,24 @@
         <v>57</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>259</v>
+        <v>59</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AM42" t="s" s="2">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>262</v>
-      </c>
       <c r="B43" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5880,19 +5911,19 @@
         <v>37</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>265</v>
+        <v>164</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -5942,7 +5973,7 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>35</v>
@@ -5954,19 +5985,148 @@
         <v>57</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AK44" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AL43" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AL44" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AM44">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI43">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="270">
   <si>
     <t>Property</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Title</t>
   </si>
   <si>
-    <t>hn-basis-schedule</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:38:53+01:00</t>
+    <t>2023-12-13T00:44:24+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1060,111 +1057,111 @@
         <v>8</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>10</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>13</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>16</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>22</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1224,4888 +1221,4888 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G1" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="H1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="I1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="L1" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="M1" t="s" s="2">
         <v>39</v>
-      </c>
-      <c r="M1" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U1" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V1" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W1" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X1" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y1" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z1" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA1" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB1" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC1" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD1" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE1" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF1" t="s" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH1" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="AH1" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="AI1" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AL1" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="AM1" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>50</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>55</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI3" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="AG3" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI3" t="s" s="2">
+      <c r="AJ3" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="AJ3" t="s" s="2">
+      <c r="AK3" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="AK3" t="s" s="2">
-        <v>59</v>
-      </c>
       <c r="AL3" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="J4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>64</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>58</v>
-      </c>
       <c r="AK4" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>69</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>70</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="Z5" t="s" s="2">
+      <c r="AA5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AA5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AG5" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>58</v>
-      </c>
       <c r="AK5" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AG6" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AL6" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="H7" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG7" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH7" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="AH7" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="AI7" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="H8" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB8" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC8" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AC8" t="s" s="2">
+      <c r="AD8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE8" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AD8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE8" t="s" s="2">
+      <c r="AF8" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK8" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="D9" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="H9" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="I9" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF9" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="AK9" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G10" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="H10" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="N10" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="P10" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB10" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC10" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AC10" t="s" s="2">
+      <c r="AD10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE10" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AD10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AF10" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AG10" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH10" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="AH10" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="AI10" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="K11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L11" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="M11" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AG11" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH11" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="AH11" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="AI11" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>58</v>
-      </c>
       <c r="AK11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>116</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="H13" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="M13" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB13" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC13" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AC13" t="s" s="2">
+      <c r="AD13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE13" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AD13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AF13" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG13" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH13" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="AH13" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="AI13" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="H14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="O14" t="s" s="2">
-        <v>129</v>
-      </c>
       <c r="P14" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="Z14" t="s" s="2">
+      <c r="AA14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AA14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF14" t="s" s="2">
+      <c r="AG14" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="AL14" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="K15" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="O15" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="P15" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="AA15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>144</v>
-      </c>
       <c r="AG15" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>58</v>
-      </c>
       <c r="AK15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="K16" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="O16" t="s" s="2">
-        <v>149</v>
-      </c>
       <c r="P16" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T16" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="U16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF16" t="s" s="2">
+      <c r="AG16" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AG16" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>152</v>
-      </c>
       <c r="AL16" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="K17" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T17" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="U17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF17" t="s" s="2">
+      <c r="AG17" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>159</v>
-      </c>
       <c r="AL17" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="K18" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
+      <c r="AK18" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AK18" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="AL18" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="K19" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
+      <c r="AK19" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="AL19" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q20" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S20" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="R20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S20" t="s" s="2">
+      <c r="T20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>183</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="H21" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AA21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>190</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="H23" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="M23" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB23" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC23" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AC23" t="s" s="2">
+      <c r="AD23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AD23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AF23" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG23" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH23" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="AH23" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="AI23" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="H24" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="O24" t="s" s="2">
-        <v>198</v>
-      </c>
       <c r="P24" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
+      <c r="AK24" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AK24" t="s" s="2">
-        <v>201</v>
-      </c>
       <c r="AL24" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J25" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="K25" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="O25" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="P25" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AG25" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="AL25" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G26" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="H26" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>211</v>
-      </c>
       <c r="N26" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG26" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH26" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="AH26" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="AI26" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="AJ26" t="s" s="2">
-        <v>58</v>
-      </c>
       <c r="AK26" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>190</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G28" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="H28" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="M28" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB28" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC28" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AC28" t="s" s="2">
+      <c r="AD28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AD28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AF28" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG28" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH28" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="AH28" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="AI28" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G29" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="H29" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="O29" t="s" s="2">
-        <v>198</v>
-      </c>
       <c r="P29" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
+      <c r="AK29" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AK29" t="s" s="2">
-        <v>201</v>
-      </c>
       <c r="AL29" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="K30" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="O30" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="P30" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AG30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="AL30" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G31" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="H31" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="N31" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y31" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Z31" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="AA31" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AG31" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH31" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="AH31" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="AI31" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>58</v>
-      </c>
       <c r="AK31" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>190</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="H33" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="M33" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB33" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC33" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AC33" t="s" s="2">
+      <c r="AD33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE33" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AD33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AF33" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG33" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH33" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="AH33" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="AI33" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G34" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="H34" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="O34" t="s" s="2">
-        <v>198</v>
-      </c>
       <c r="P34" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF34" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
+      <c r="AK34" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AK34" t="s" s="2">
-        <v>201</v>
-      </c>
       <c r="AL34" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J35" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="H35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="K35" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="O35" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="P35" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="AL35" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J36" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="K36" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>233</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G38" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="H38" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L38" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="M38" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB38" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC38" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AC38" t="s" s="2">
+      <c r="AD38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AD38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AF38" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG38" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH38" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="AH38" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="AI38" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J39" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="H39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="K39" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI39" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>241</v>
-      </c>
       <c r="AJ39" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="AK39" t="s" s="2">
-        <v>59</v>
-      </c>
       <c r="AL39" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J40" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="K40" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Z40" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Z40" t="s" s="2">
+      <c r="AA40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AA40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AG40" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI40" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="AJ40" t="s" s="2">
+      <c r="AK40" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="AK40" t="s" s="2">
-        <v>59</v>
-      </c>
       <c r="AL40" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J41" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="H41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="K41" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF41" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AG41" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>254</v>
-      </c>
       <c r="AL41" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J42" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="H42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="K42" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="AJ42" t="s" s="2">
+      <c r="AK42" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="AK42" t="s" s="2">
-        <v>59</v>
-      </c>
       <c r="AL42" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J43" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="H43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="K43" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>262</v>
-      </c>
       <c r="N43" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="AJ44" t="s" s="2">
-        <v>58</v>
-      </c>
       <c r="AK44" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$38</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="244">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:44:24+01:00</t>
+    <t>2023-12-13T00:53:03+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -746,89 +746,6 @@
   </si>
   <si>
     <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>Schedule.actor.id</t>
-  </si>
-  <si>
-    <t>Schedule.actor.extension</t>
-  </si>
-  <si>
-    <t>Schedule.actor.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t>ele-1
-ref-1</t>
-  </si>
-  <si>
-    <t>Schedule.actor.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Schedule.actor.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Schedule.actor.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
   <si>
     <t>Schedule.planningHorizon</t>
@@ -1171,7 +1088,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM44"/>
+  <dimension ref="A1:AM38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5244,18 +5161,20 @@
         <v>36</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>118</v>
+        <v>234</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>36</v>
@@ -5304,7 +5223,7 @@
         <v>36</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>120</v>
+        <v>233</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>34</v>
@@ -5313,38 +5232,38 @@
         <v>44</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>36</v>
+        <v>237</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>36</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>34</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>36</v>
@@ -5356,16 +5275,16 @@
         <v>36</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>92</v>
+        <v>240</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>122</v>
+        <v>241</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>94</v>
+        <v>242</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5403,710 +5322,44 @@
         <v>36</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>123</v>
+        <v>239</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>36</v>
+        <v>243</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="39" hidden="true">
-      <c r="A39" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O39" s="2"/>
-      <c r="P39" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O40" s="2"/>
-      <c r="P40" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" hidden="true">
-      <c r="A41" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O41" s="2"/>
-      <c r="P41" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" hidden="true">
-      <c r="A42" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O42" s="2"/>
-      <c r="P42" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" hidden="true">
-      <c r="A43" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O43" s="2"/>
-      <c r="P43" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="44" hidden="true">
-      <c r="A44" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O44" s="2"/>
-      <c r="P44" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AM44">
+  <autoFilter ref="A1:AM38">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6116,7 +5369,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI43">
+  <conditionalFormatting sqref="A2:AI37">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:53:03+01:00</t>
+    <t>2023-12-13T00:58:42+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>35</v>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T00:58:42+01:00</t>
+    <t>2023-12-13T10:40:21+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -335,20 +335,20 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Schedule.extension:firstFreeSlot</t>
-  </si>
-  <si>
-    <t>firstFreeSlot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/hn-extension-first-available-free-slot}
+    <t>Schedule.extension:firstAndLastFreeSlots</t>
+  </si>
+  <si>
+    <t>firstAndLastFreeSlots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/hn-extension-first-and-last-available-free-slot}
 </t>
   </si>
   <si>
-    <t>Første ledige slot i timebok</t>
-  </si>
-  <si>
-    <t>Første ledige slot i timebok. Tid og referanse</t>
+    <t>Første og siste ledige slot i timebok</t>
+  </si>
+  <si>
+    <t>Første og siste ledige slot i timebok. Tid og referanse</t>
   </si>
   <si>
     <t>Schedule.modifierExtension</t>
@@ -1097,16 +1097,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.23046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.94140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.23046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="19.98046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.07421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.9453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T10:40:21+01:00</t>
+    <t>2023-12-13T11:06:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T11:06:00+01:00</t>
+    <t>2023-12-13T11:11:11+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -335,20 +335,20 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Schedule.extension:firstAndLastFreeSlots</t>
-  </si>
-  <si>
-    <t>firstAndLastFreeSlots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/hn-extension-first-and-last-available-free-slot}
+    <t>Schedule.extension:freeSlotPlanningHorizon</t>
+  </si>
+  <si>
+    <t>freeSlotPlanningHorizon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/hn-extension-free-slot-planningHorizon}
 </t>
   </si>
   <si>
-    <t>Første og siste ledige slot i timebok</t>
-  </si>
-  <si>
-    <t>Første og siste ledige slot i timebok. Tid og referanse</t>
+    <t>Periode for første og siste ledige slot i timebok</t>
+  </si>
+  <si>
+    <t>Periode for første og siste ledige slot i timebok. Tid og referanse</t>
   </si>
   <si>
     <t>Schedule.modifierExtension</t>
@@ -1097,16 +1097,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.94140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.73046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.23046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.98046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.76953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="93.9453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="88.65234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T11:11:11+01:00</t>
+    <t>2023-12-13T11:17:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T11:17:26+01:00</t>
+    <t>2023-12-13T16:08:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T16:08:28+01:00</t>
+    <t>2023-12-13T16:14:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T16:14:30+01:00</t>
+    <t>2023-12-13T17:25:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T17:25:33+01:00</t>
+    <t>2023-12-13T17:36:01+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T17:36:01+01:00</t>
+    <t>2023-12-14T00:07:25+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:07:25+01:00</t>
+    <t>2023-12-14T00:17:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:17:30+01:00</t>
+    <t>2023-12-14T00:31:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T00:31:44+01:00</t>
+    <t>2023-12-14T15:10:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$32</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="244">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T15:10:19+01:00</t>
+    <t>2024-06-09T15:34:44+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -616,121 +616,41 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Schedule.serviceCategory.id</t>
-  </si>
-  <si>
-    <t>Schedule.serviceCategory.extension</t>
-  </si>
-  <si>
-    <t>Schedule.serviceCategory.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
+    <t>Schedule.serviceType</t>
+  </si>
+  <si>
+    <t>Specific service</t>
+  </si>
+  <si>
+    <t>The specific service that is to be performed during this appointment.</t>
+  </si>
+  <si>
+    <t>http://helsenorge.no/fhir/ValueSet/hn-scheduleandslot-type-vs</t>
+  </si>
+  <si>
+    <t>Schedule.specialty</t>
+  </si>
+  <si>
+    <t>Type of specialty needed</t>
+  </si>
+  <si>
+    <t>The specialty of a practitioner that would be required to perform the service requested in this appointment.</t>
+  </si>
+  <si>
+    <t>Additional details about where the content was created (e.g. clinical specialty).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+  </si>
+  <si>
+    <t>Schedule.actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(HealthcareService|Practitioner|http://hl7.no/fhir/StructureDefinition/no-basis-HealthcareService|http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner)
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-inv-4:If code is used in a codable consept the system must be used {code &gt; '' implies (system &gt; '' )}</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Schedule.serviceCategory.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Schedule.serviceType</t>
-  </si>
-  <si>
-    <t>Specific service</t>
-  </si>
-  <si>
-    <t>The specific service that is to be performed during this appointment.</t>
-  </si>
-  <si>
-    <t>http://helsenorge.no/fhir/ValueSet/hn-scheduleandslot-type-vs</t>
-  </si>
-  <si>
-    <t>Schedule.serviceType.id</t>
-  </si>
-  <si>
-    <t>Schedule.serviceType.extension</t>
-  </si>
-  <si>
-    <t>Schedule.serviceType.coding</t>
-  </si>
-  <si>
-    <t>Schedule.serviceType.text</t>
-  </si>
-  <si>
-    <t>Schedule.specialty</t>
-  </si>
-  <si>
-    <t>Type of specialty needed</t>
-  </si>
-  <si>
-    <t>The specialty of a practitioner that would be required to perform the service requested in this appointment.</t>
-  </si>
-  <si>
-    <t>Additional details about where the content was created (e.g. clinical specialty).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
-  </si>
-  <si>
-    <t>Schedule.specialty.id</t>
-  </si>
-  <si>
-    <t>Schedule.specialty.extension</t>
-  </si>
-  <si>
-    <t>Schedule.specialty.coding</t>
-  </si>
-  <si>
-    <t>Schedule.specialty.text</t>
-  </si>
-  <si>
-    <t>Schedule.actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(HealthcareService|Practitioner)
-</t>
-  </si>
-  <si>
-    <t>Currently only HealthcareService or Practitioner are referenced as valid actors.</t>
+    <t>Currently only HealthcareService or Practitioner (basic and no-basic profiles) are referenced as valid actors.</t>
   </si>
   <si>
     <t>Slots that reference this schedule resource provide the availability details to these referenced resource(s).</t>
@@ -746,6 +666,89 @@
   </si>
   <si>
     <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Schedule.actor.id</t>
+  </si>
+  <si>
+    <t>Schedule.actor.extension</t>
+  </si>
+  <si>
+    <t>Schedule.actor.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t>ele-1
+ref-1</t>
+  </si>
+  <si>
+    <t>Schedule.actor.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>Schedule.actor.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Schedule.actor.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
   </si>
   <si>
     <t>Schedule.planningHorizon</t>
@@ -1088,7 +1091,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM38"/>
+  <dimension ref="A1:AM32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1098,7 +1101,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="40.73046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.23046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.16015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="22.76953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
@@ -1106,7 +1109,7 @@
     <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="88.65234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="153.25390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3480,10 +3483,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>36</v>
@@ -3492,18 +3495,20 @@
         <v>36</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>36</v>
@@ -3528,13 +3533,11 @@
         <v>36</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>36</v>
@@ -3552,40 +3555,40 @@
         <v>36</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="AM22" t="s" s="2">
-        <v>36</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3601,19 +3604,19 @@
         <v>36</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3639,31 +3642,31 @@
         <v>36</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>36</v>
+        <v>197</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>34</v>
@@ -3675,24 +3678,24 @@
         <v>56</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>36</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3700,7 +3703,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>35</v>
@@ -3715,20 +3718,18 @@
         <v>45</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>36</v>
       </c>
@@ -3776,10 +3777,10 @@
         <v>36</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>35</v>
@@ -3788,24 +3789,24 @@
         <v>56</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>36</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3825,23 +3826,19 @@
         <v>36</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>117</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>36</v>
       </c>
@@ -3889,7 +3886,7 @@
         <v>36</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>206</v>
+        <v>120</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>34</v>
@@ -3898,13 +3895,13 @@
         <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>207</v>
+        <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>36</v>
@@ -3922,11 +3919,11 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>35</v>
@@ -3938,19 +3935,19 @@
         <v>36</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>210</v>
+        <v>122</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -3976,29 +3973,31 @@
         <v>36</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="Y26" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Z26" t="s" s="2">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>208</v>
+        <v>123</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>34</v>
@@ -4010,24 +4009,24 @@
         <v>56</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>188</v>
+        <v>58</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>189</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4047,18 +4046,20 @@
         <v>36</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>117</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>36</v>
@@ -4107,7 +4108,7 @@
         <v>36</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>34</v>
@@ -4116,13 +4117,13 @@
         <v>44</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>36</v>
@@ -4133,21 +4134,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>36</v>
@@ -4156,19 +4157,19 @@
         <v>36</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>92</v>
+        <v>216</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>122</v>
+        <v>217</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4194,43 +4195,43 @@
         <v>36</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>36</v>
+        <v>219</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>123</v>
+        <v>221</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>58</v>
@@ -4244,10 +4245,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4258,7 +4259,7 @@
         <v>34</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>36</v>
@@ -4270,20 +4271,18 @@
         <v>45</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>36</v>
       </c>
@@ -4331,22 +4330,22 @@
         <v>36</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>199</v>
+        <v>57</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>36</v>
@@ -4357,10 +4356,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4386,17 +4385,15 @@
         <v>117</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>36</v>
       </c>
@@ -4444,7 +4441,7 @@
         <v>36</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>34</v>
@@ -4459,7 +4456,7 @@
         <v>57</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>207</v>
+        <v>58</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>36</v>
@@ -4470,10 +4467,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4484,7 +4481,7 @@
         <v>34</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>36</v>
@@ -4496,16 +4493,16 @@
         <v>45</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4531,13 +4528,13 @@
         <v>36</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>36</v>
@@ -4555,36 +4552,36 @@
         <v>36</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>188</v>
+        <v>236</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>36</v>
+        <v>237</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>189</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4610,12 +4607,14 @@
         <v>117</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>36</v>
@@ -4664,7 +4663,7 @@
         <v>36</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>120</v>
+        <v>239</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>34</v>
@@ -4673,693 +4672,23 @@
         <v>44</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>36</v>
+        <v>243</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="33" hidden="true">
-      <c r="A33" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O33" s="2"/>
-      <c r="P33" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Q33" s="2"/>
-      <c r="R33" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" hidden="true">
-      <c r="A34" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="P34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Q34" s="2"/>
-      <c r="R34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" hidden="true">
-      <c r="A35" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" hidden="true">
-      <c r="A36" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O36" s="2"/>
-      <c r="P36" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="37" hidden="true">
-      <c r="A37" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O37" s="2"/>
-      <c r="P37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="38" hidden="true">
-      <c r="A38" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O38" s="2"/>
-      <c r="P38" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AM38">
+  <autoFilter ref="A1:AM32">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5369,7 +4698,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI37">
+  <conditionalFormatting sqref="A2:AI31">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$58</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="311">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-09T15:34:44+02:00</t>
+    <t>2024-06-12T14:59:11+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -616,6 +616,167 @@
     <t>FiveWs.class</t>
   </si>
   <si>
+    <t>Schedule.serviceCategory.id</t>
+  </si>
+  <si>
+    <t>Schedule.serviceCategory.extension</t>
+  </si>
+  <si>
+    <t>Schedule.serviceCategory.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+inv-4:If code is used in a codable consept the system must be used {code &gt; '' implies (system &gt; '' )}</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Schedule.serviceCategory.coding.id</t>
+  </si>
+  <si>
+    <t>Schedule.serviceCategory.coding.extension</t>
+  </si>
+  <si>
+    <t>Schedule.serviceCategory.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Schedule.serviceCategory.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Schedule.serviceCategory.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Schedule.serviceCategory.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Schedule.serviceCategory.coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Schedule.serviceCategory.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>Schedule.serviceType</t>
   </si>
   <si>
@@ -628,6 +789,39 @@
     <t>http://helsenorge.no/fhir/ValueSet/hn-scheduleandslot-type-vs</t>
   </si>
   <si>
+    <t>Schedule.serviceType.id</t>
+  </si>
+  <si>
+    <t>Schedule.serviceType.extension</t>
+  </si>
+  <si>
+    <t>Schedule.serviceType.coding</t>
+  </si>
+  <si>
+    <t>Schedule.serviceType.coding.id</t>
+  </si>
+  <si>
+    <t>Schedule.serviceType.coding.extension</t>
+  </si>
+  <si>
+    <t>Schedule.serviceType.coding.system</t>
+  </si>
+  <si>
+    <t>Schedule.serviceType.coding.version</t>
+  </si>
+  <si>
+    <t>Schedule.serviceType.coding.code</t>
+  </si>
+  <si>
+    <t>Schedule.serviceType.coding.display</t>
+  </si>
+  <si>
+    <t>Schedule.serviceType.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Schedule.serviceType.text</t>
+  </si>
+  <si>
     <t>Schedule.specialty</t>
   </si>
   <si>
@@ -641,6 +835,18 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+  </si>
+  <si>
+    <t>Schedule.specialty.id</t>
+  </si>
+  <si>
+    <t>Schedule.specialty.extension</t>
+  </si>
+  <si>
+    <t>Schedule.specialty.coding</t>
+  </si>
+  <si>
+    <t>Schedule.specialty.text</t>
   </si>
   <si>
     <t>Schedule.actor</t>
@@ -776,9 +982,6 @@
   </si>
   <si>
     <t>Comments regarding the scheduler including short information about the timebook.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>COMMENT:(comment) If there is no comment, then the line can be excluded from the iCalendar entry</t>
@@ -1091,7 +1294,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM32"/>
+  <dimension ref="A1:AM58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1100,8 +1303,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.73046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.16015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.51171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.51171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="22.76953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
@@ -3483,10 +3686,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>36</v>
@@ -3495,20 +3698,18 @@
         <v>36</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>36</v>
@@ -3533,11 +3734,13 @@
         <v>36</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="Y22" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Z22" t="s" s="2">
-        <v>193</v>
+        <v>36</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>36</v>
@@ -3555,40 +3758,40 @@
         <v>36</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>189</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3604,19 +3807,19 @@
         <v>36</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>195</v>
+        <v>92</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3642,31 +3845,31 @@
         <v>36</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>197</v>
+        <v>36</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>198</v>
+        <v>36</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>194</v>
+        <v>123</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>34</v>
@@ -3678,24 +3881,24 @@
         <v>56</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>188</v>
+        <v>58</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>189</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3703,7 +3906,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>35</v>
@@ -3718,18 +3921,20 @@
         <v>45</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>36</v>
       </c>
@@ -3777,10 +3982,10 @@
         <v>36</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>35</v>
@@ -3789,24 +3994,24 @@
         <v>56</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>205</v>
+        <v>36</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>206</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3912,10 +4117,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4023,10 +4228,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4034,7 +4239,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>44</v>
@@ -4049,18 +4254,20 @@
         <v>45</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>36</v>
       </c>
@@ -4108,7 +4315,7 @@
         <v>36</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>34</v>
@@ -4117,13 +4324,13 @@
         <v>44</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>57</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>58</v>
+        <v>209</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>36</v>
@@ -4134,10 +4341,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4145,7 +4352,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>44</v>
@@ -4160,16 +4367,16 @@
         <v>45</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4195,13 +4402,13 @@
         <v>36</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>36</v>
@@ -4219,7 +4426,7 @@
         <v>36</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>34</v>
@@ -4234,7 +4441,7 @@
         <v>57</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>58</v>
+        <v>215</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>36</v>
@@ -4245,10 +4452,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4271,18 +4478,20 @@
         <v>45</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>36</v>
       </c>
@@ -4330,7 +4539,7 @@
         <v>36</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>34</v>
@@ -4345,7 +4554,7 @@
         <v>57</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>36</v>
@@ -4356,10 +4565,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4385,15 +4594,17 @@
         <v>117</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>36</v>
       </c>
@@ -4441,7 +4652,7 @@
         <v>36</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>34</v>
@@ -4456,7 +4667,7 @@
         <v>57</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>58</v>
+        <v>228</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>36</v>
@@ -4467,10 +4678,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4493,18 +4704,20 @@
         <v>45</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>36</v>
       </c>
@@ -4552,7 +4765,7 @@
         <v>36</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>34</v>
@@ -4564,24 +4777,24 @@
         <v>56</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>237</v>
+        <v>36</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>238</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4601,21 +4814,23 @@
         <v>36</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>117</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O32" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>36</v>
       </c>
@@ -4663,7 +4878,7 @@
         <v>36</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>34</v>
@@ -4678,17 +4893,2909 @@
         <v>57</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="Y33" s="2"/>
+      <c r="Z33" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AL32" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AM33" t="s" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="P36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="P39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="P42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="P44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="P49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM32">
+  <autoFilter ref="A1:AM58">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4698,7 +7805,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI31">
+  <conditionalFormatting sqref="A2:AI57">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-06T23:06:55+01:00</t>
+    <t>2024-11-07T10:16:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:16:17+01:00</t>
+    <t>2024-11-07T10:24:13+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:24:13+01:00</t>
+    <t>2024-11-07T10:34:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T10:34:59+01:00</t>
+    <t>2025-02-07T15:58:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:58:52+01:00</t>
+    <t>2025-02-12T12:09:01+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-12T12:09:01+01:00</t>
+    <t>2025-02-12T17:25:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3864,7 +3864,7 @@
         <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-12T17:25:34+01:00</t>
+    <t>2025-02-13T07:45:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T07:45:06+01:00</t>
+    <t>2025-02-21T16:49:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T16:49:26+01:00</t>
+    <t>2025-02-22T02:39:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T02:39:46+01:00</t>
+    <t>2025-02-22T03:24:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:24:26+01:00</t>
+    <t>2025-02-22T03:36:49+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:36:49+01:00</t>
+    <t>2025-02-22T03:45:56+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:45:56+01:00</t>
+    <t>2025-02-22T03:55:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T03:55:28+01:00</t>
+    <t>2025-02-22T04:12:23+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T04:12:23+01:00</t>
+    <t>2025-02-22T05:08:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T05:08:06+01:00</t>
+    <t>2025-02-22T05:29:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-22T05:29:40+01:00</t>
+    <t>2025-03-16T11:47:10+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T11:47:10+01:00</t>
+    <t>2025-03-16T12:58:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T12:58:55+01:00</t>
+    <t>2025-03-16T13:18:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-16T13:18:55+01:00</t>
+    <t>2025-03-26T11:34:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T11:34:28+01:00</t>
+    <t>2025-05-28T01:07:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T01:07:52+02:00</t>
+    <t>2025-05-28T02:05:36+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T02:05:36+02:00</t>
+    <t>2025-05-29T20:33:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T20:33:03+02:00</t>
+    <t>2025-05-29T20:44:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="342">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T20:44:52+02:00</t>
+    <t>2025-07-07T00:15:54+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -258,7 +258,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>n/a</t>
@@ -308,169 +308,163 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Schedule.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Schedule.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Schedule.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Schedule.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Schedule.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Schedule.extension:freeSlotPlanningHorizon</t>
+  </si>
+  <si>
+    <t>freeSlotPlanningHorizon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/hn-extension-free-slot-planningHorizon}
+</t>
+  </si>
+  <si>
+    <t>Periode for første og siste ledige slot i timebok</t>
+  </si>
+  <si>
+    <t>Periode for første og siste ledige slot i timebok. Tid og referanse</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Schedule.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Schedule.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Schedule.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Schedule.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Schedule.extension</t>
+    <t>Schedule.modifierExtension</t>
   </si>
   <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Schedule.extension:freeSlotPlanningHorizon</t>
-  </si>
-  <si>
-    <t>freeSlotPlanningHorizon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/hn-extension-free-slot-planningHorizon}
-</t>
-  </si>
-  <si>
-    <t>Periode for første og siste ledige slot i timebok</t>
-  </si>
-  <si>
-    <t>Periode for første og siste ledige slot i timebok. Tid og referanse</t>
-  </si>
-  <si>
-    <t>Schedule.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -478,6 +472,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -494,9 +491,6 @@
     <t>Identifer must be UUID/GUID</t>
   </si>
   <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
     <t>UID</t>
   </si>
   <si>
@@ -522,7 +516,13 @@
     <t>Schedule.identifier.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -647,15 +647,7 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
     <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>Role.effectiveTime or implied by context</t>
@@ -680,10 +672,6 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
@@ -721,13 +709,7 @@
     <t>A broad categorization of the service that is to be performed during this appointment.</t>
   </si>
   <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/service-category</t>
-  </si>
-  <si>
-    <t>CD</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -822,9 +804,6 @@
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
@@ -982,9 +961,6 @@
     <t>The capacity to support multiple referenced resource types should be used in cases where the specific resources themselves cannot be scheduled without the other, and thus only make sense to the system exposing them as a group. Common examples of this are where the combination of a practitioner and a room (Location) are always required by a system.</t>
   </si>
   <si>
-    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
-  </si>
-  <si>
     <t>ATTENDEE:MAILTO:john_public@host2.com This can be populated with a value from the referenced resource</t>
   </si>
   <si>
@@ -1012,8 +988,8 @@
     <t>Reference.reference</t>
   </si>
   <si>
-    <t>ele-1
-ref-1</t>
+    <t xml:space="preserve">ref-1
+</t>
   </si>
   <si>
     <t>Schedule.actor.type</t>
@@ -1081,9 +1057,6 @@
   </si>
   <si>
     <t>The period of time that the slots that reference this Schedule resource cover (even if none exist). These  cover the amount of time that an organization's planning horizon; the interval for which they are currently accepting appointments. This does not define a "template" for planning outside these dates.</t>
-  </si>
-  <si>
-    <t>IVL&lt;TS&gt;[lowClosed="true" and highClosed="true"] or URG&lt;TS&gt;[lowClosed="true" and highClosed="true"]</t>
   </si>
   <si>
     <t>DTSTART:20131201T003000Z DTEND:2014030101T003000Z</t>
@@ -1455,7 +1428,7 @@
     <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="137.703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
@@ -1893,13 +1866,13 @@
         <v>83</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK4" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>75</v>
@@ -1910,10 +1883,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1936,16 +1909,16 @@
         <v>84</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1995,7 +1968,7 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>73</v>
@@ -2004,13 +1977,13 @@
         <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK5" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>75</v>
@@ -2021,10 +1994,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2047,16 +2020,16 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2082,32 +2055,32 @@
         <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Z6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>73</v>
       </c>
@@ -2115,13 +2088,13 @@
         <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK6" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>75</v>
@@ -2132,14 +2105,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2158,16 +2131,16 @@
         <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2217,7 +2190,7 @@
         <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>73</v>
@@ -2226,13 +2199,13 @@
         <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK7" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>75</v>
@@ -2243,14 +2216,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2269,16 +2242,16 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2328,7 +2301,7 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>73</v>
@@ -2343,7 +2316,7 @@
         <v>75</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>75</v>
@@ -2354,14 +2327,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2380,17 +2353,15 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>133</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>75</v>
@@ -2427,19 +2398,17 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>73</v>
@@ -2448,13 +2417,13 @@
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>75</v>
@@ -2465,13 +2434,13 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>75</v>
@@ -2493,13 +2462,13 @@
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2550,7 +2519,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>73</v>
@@ -2559,10 +2528,10 @@
         <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>75</v>
@@ -2576,14 +2545,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2602,19 +2571,19 @@
         <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>75</v>
@@ -2651,19 +2620,19 @@
         <v>75</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>73</v>
@@ -2672,13 +2641,13 @@
         <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>75</v>
@@ -2689,10 +2658,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2715,13 +2684,13 @@
         <v>84</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>151</v>
-      </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2772,7 +2741,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>73</v>
@@ -2781,27 +2750,27 @@
         <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>154</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2824,13 +2793,13 @@
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2881,7 +2850,7 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>73</v>
@@ -2907,14 +2876,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2933,16 +2902,16 @@
         <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2980,16 +2949,16 @@
         <v>75</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>162</v>
@@ -3001,13 +2970,13 @@
         <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>75</v>
@@ -3044,7 +3013,7 @@
         <v>84</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>164</v>
@@ -3114,10 +3083,10 @@
         <v>83</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>172</v>
@@ -3227,10 +3196,10 @@
         <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>172</v>
@@ -3270,7 +3239,7 @@
         <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>184</v>
@@ -3340,10 +3309,10 @@
         <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>190</v>
@@ -3383,7 +3352,7 @@
         <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>192</v>
@@ -3451,10 +3420,10 @@
         <v>83</v>
       </c>
       <c r="AI18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>197</v>
@@ -3502,9 +3471,7 @@
       <c r="M19" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="N19" t="s" s="2">
-        <v>202</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>75</v>
@@ -3553,22 +3520,22 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>75</v>
@@ -3579,10 +3546,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3605,16 +3572,16 @@
         <v>84</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3664,7 +3631,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>73</v>
@@ -3673,13 +3640,13 @@
         <v>83</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ20" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="AK20" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>75</v>
@@ -3690,10 +3657,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3716,29 +3683,29 @@
         <v>84</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q21" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>75</v>
@@ -3777,7 +3744,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>73</v>
@@ -3786,27 +3753,27 @@
         <v>83</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK21" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3832,14 +3799,12 @@
         <v>174</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -3864,11 +3829,11 @@
         <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>75</v>
@@ -3886,7 +3851,7 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>73</v>
@@ -3895,27 +3860,27 @@
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK22" t="s" s="2">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3938,13 +3903,13 @@
         <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3995,7 +3960,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>73</v>
@@ -4021,14 +3986,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4047,16 +4012,16 @@
         <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4094,16 +4059,16 @@
         <v>75</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>162</v>
@@ -4115,13 +4080,13 @@
         <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>75</v>
@@ -4132,10 +4097,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4158,19 +4123,19 @@
         <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>75</v>
@@ -4219,7 +4184,7 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>73</v>
@@ -4228,13 +4193,13 @@
         <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>75</v>
@@ -4245,10 +4210,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4271,13 +4236,13 @@
         <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4328,7 +4293,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
@@ -4354,14 +4319,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4380,16 +4345,16 @@
         <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4427,16 +4392,16 @@
         <v>75</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>162</v>
@@ -4448,13 +4413,13 @@
         <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>75</v>
@@ -4465,10 +4430,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4491,19 +4456,19 @@
         <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>75</v>
@@ -4552,7 +4517,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>73</v>
@@ -4561,13 +4526,13 @@
         <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK28" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>75</v>
@@ -4578,10 +4543,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4604,16 +4569,16 @@
         <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4663,7 +4628,7 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>73</v>
@@ -4672,13 +4637,13 @@
         <v>83</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>75</v>
@@ -4689,10 +4654,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4715,19 +4680,17 @@
         <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>75</v>
@@ -4776,7 +4739,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>73</v>
@@ -4785,13 +4748,13 @@
         <v>83</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK30" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>75</v>
@@ -4802,10 +4765,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4828,19 +4791,17 @@
         <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N31" t="s" s="2">
         <v>258</v>
       </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>75</v>
@@ -4889,7 +4850,7 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>73</v>
@@ -4898,13 +4859,13 @@
         <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK31" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
@@ -4915,10 +4876,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4941,19 +4902,19 @@
         <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>75</v>
@@ -5002,7 +4963,7 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>73</v>
@@ -5011,13 +4972,13 @@
         <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ32" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK32" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
@@ -5028,10 +4989,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5054,19 +5015,19 @@
         <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>75</v>
@@ -5115,7 +5076,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>73</v>
@@ -5124,13 +5085,13 @@
         <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK33" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>75</v>
@@ -5141,10 +5102,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5170,14 +5131,12 @@
         <v>174</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
@@ -5206,7 +5165,7 @@
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>75</v>
@@ -5224,7 +5183,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>73</v>
@@ -5233,27 +5192,27 @@
         <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK34" t="s" s="2">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5276,13 +5235,13 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5333,7 +5292,7 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>73</v>
@@ -5359,14 +5318,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5385,16 +5344,16 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5432,16 +5391,16 @@
         <v>75</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>162</v>
@@ -5453,13 +5412,13 @@
         <v>74</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
@@ -5470,10 +5429,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5496,19 +5455,19 @@
         <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>75</v>
@@ -5557,7 +5516,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>73</v>
@@ -5566,13 +5525,13 @@
         <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>75</v>
@@ -5583,10 +5542,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5609,13 +5568,13 @@
         <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5666,7 +5625,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>73</v>
@@ -5692,14 +5651,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5718,16 +5677,16 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5765,16 +5724,16 @@
         <v>75</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>162</v>
@@ -5786,13 +5745,13 @@
         <v>74</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>75</v>
@@ -5803,10 +5762,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5829,19 +5788,19 @@
         <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
@@ -5890,7 +5849,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>73</v>
@@ -5899,13 +5858,13 @@
         <v>83</v>
       </c>
       <c r="AI40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ40" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK40" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>
@@ -5916,10 +5875,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5942,16 +5901,16 @@
         <v>84</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6001,7 +5960,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>73</v>
@@ -6010,13 +5969,13 @@
         <v>83</v>
       </c>
       <c r="AI41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ41" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK41" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -6027,10 +5986,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6053,19 +6012,17 @@
         <v>84</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>75</v>
@@ -6114,7 +6071,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>73</v>
@@ -6123,13 +6080,13 @@
         <v>83</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ42" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK42" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>75</v>
@@ -6140,10 +6097,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6166,19 +6123,17 @@
         <v>84</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N43" t="s" s="2">
         <v>258</v>
       </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>75</v>
@@ -6227,7 +6182,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>73</v>
@@ -6236,13 +6191,13 @@
         <v>83</v>
       </c>
       <c r="AI43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ43" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK43" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>75</v>
@@ -6253,10 +6208,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6279,19 +6234,19 @@
         <v>84</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>75</v>
@@ -6340,7 +6295,7 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>73</v>
@@ -6349,13 +6304,13 @@
         <v>83</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ44" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK44" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>75</v>
@@ -6366,10 +6321,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6392,19 +6347,19 @@
         <v>84</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>75</v>
@@ -6453,7 +6408,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>73</v>
@@ -6462,13 +6417,13 @@
         <v>83</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK45" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>75</v>
@@ -6479,10 +6434,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6508,14 +6463,12 @@
         <v>174</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>75</v>
@@ -6540,13 +6493,13 @@
         <v>75</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>75</v>
@@ -6564,7 +6517,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>73</v>
@@ -6573,27 +6526,27 @@
         <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK46" t="s" s="2">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6616,13 +6569,13 @@
         <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6673,7 +6626,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>73</v>
@@ -6699,14 +6652,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -6725,16 +6678,16 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6772,16 +6725,16 @@
         <v>75</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>162</v>
@@ -6793,13 +6746,13 @@
         <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>75</v>
@@ -6810,10 +6763,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6836,19 +6789,19 @@
         <v>84</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>75</v>
@@ -6897,7 +6850,7 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>73</v>
@@ -6906,13 +6859,13 @@
         <v>74</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>75</v>
@@ -6923,10 +6876,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6949,19 +6902,19 @@
         <v>84</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>75</v>
@@ -7010,7 +6963,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>73</v>
@@ -7019,13 +6972,13 @@
         <v>83</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK50" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>75</v>
@@ -7036,10 +6989,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7062,16 +7015,16 @@
         <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7121,7 +7074,7 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>83</v>
@@ -7130,27 +7083,27 @@
         <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ51" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="AK51" t="s" s="2">
-        <v>311</v>
+        <v>75</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7173,13 +7126,13 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7230,7 +7183,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>73</v>
@@ -7256,14 +7209,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7282,16 +7235,16 @@
         <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7329,16 +7282,16 @@
         <v>75</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>162</v>
@@ -7350,13 +7303,13 @@
         <v>74</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>75</v>
@@ -7367,10 +7320,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7393,16 +7346,16 @@
         <v>84</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7452,7 +7405,7 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>73</v>
@@ -7461,13 +7414,13 @@
         <v>83</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>75</v>
@@ -7478,10 +7431,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7504,16 +7457,16 @@
         <v>84</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7542,10 +7495,10 @@
         <v>179</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>75</v>
@@ -7563,7 +7516,7 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>73</v>
@@ -7572,13 +7525,13 @@
         <v>83</v>
       </c>
       <c r="AI55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ55" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK55" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>75</v>
@@ -7589,10 +7542,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7615,16 +7568,16 @@
         <v>84</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -7674,7 +7627,7 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>73</v>
@@ -7683,13 +7636,13 @@
         <v>83</v>
       </c>
       <c r="AI56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ56" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK56" t="s" s="2">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>75</v>
@@ -7700,10 +7653,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7726,16 +7679,16 @@
         <v>84</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -7785,7 +7738,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>73</v>
@@ -7794,13 +7747,13 @@
         <v>83</v>
       </c>
       <c r="AI57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ57" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK57" t="s" s="2">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>75</v>
@@ -7811,10 +7764,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7840,14 +7793,12 @@
         <v>199</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>75</v>
@@ -7896,7 +7847,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>73</v>
@@ -7905,27 +7856,27 @@
         <v>83</v>
       </c>
       <c r="AI58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ58" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="AK58" t="s" s="2">
-        <v>343</v>
+        <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7948,17 +7899,15 @@
         <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>75</v>
@@ -8007,7 +7956,7 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>73</v>
@@ -8016,16 +7965,16 @@
         <v>83</v>
       </c>
       <c r="AI59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ59" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AK59" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>75</v>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T00:15:54+02:00</t>
+    <t>2025-07-07T00:32:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T00:32:38+02:00</t>
+    <t>2025-07-07T08:59:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T08:59:22+02:00</t>
+    <t>2025-09-28T17:18:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-28T17:18:13+02:00</t>
+    <t>2025-09-29T11:26:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:26:30+02:00</t>
+    <t>2025-09-29T11:54:59+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:54:59+02:00</t>
+    <t>2025-09-29T13:11:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.1</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T13:11:32+02:00</t>
+    <t>2025-09-29T13:18:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
+++ b/ExampleIG/output/StructureDefinition-hn-basis-schedule.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T13:18:42+02:00</t>
+    <t>2025-10-01T13:36:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
